--- a/biology/Botanique/Erythrina_senegalensis/Erythrina_senegalensis.xlsx
+++ b/biology/Botanique/Erythrina_senegalensis/Erythrina_senegalensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erythrina senegalensis, dont le nom commun est erythrine du Sénégal en français[1], tinyao en babungo [2], est un arbre épineux de la famille des Fabacées[3], originaire de l’Afrique de l'Ouest et du Soudan[4], qu'on retrouve au Cameroun, au Tchad, ainsi que dans plusieurs régions de l'Afrique de l'Ouest tropicale[3] .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythrina senegalensis, dont le nom commun est erythrine du Sénégal en français, tinyao en babungo , est un arbre épineux de la famille des Fabacées, originaire de l’Afrique de l'Ouest et du Soudan, qu'on retrouve au Cameroun, au Tchad, ainsi que dans plusieurs régions de l'Afrique de l'Ouest tropicale .
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Stature
-L’arbre peut atteindre 6 à 15 mètres de haut. Il présente une cime irrégulière[1].
+L’arbre peut atteindre 6 à 15 mètres de haut. Il présente une cime irrégulière.
 Bois et écorce
-L'écorce est rugueuse et de couleur beige, les rameaux et les branches présentent des épines courbées, mesurant jusqu’à 1 cm de long[1].
+L'écorce est rugueuse et de couleur beige, les rameaux et les branches présentent des épines courbées, mesurant jusqu’à 1 cm de long.
 Feuilles
-Les feuilles de 12-30 cm sont alternes et trifoliolées[1].
+Les feuilles de 12-30 cm sont alternes et trifoliolées.
 Fleurs et fruits
-Les fleurs asymétriques de 3-4 cm de long, qui apparaissent principalement au début de la saison sèche, sont de couleur rouge vif. L’arbre produit des gousses incurvées faisant 7-18 cm de long, de couleur kaki à maturité. Ces gousses contiennent des graines au nombre de 5 à 9, de couleur rouge vif, d'aspect lisse et luisant, faisant 6-7 mm de long[1].</t>
+Les fleurs asymétriques de 3-4 cm de long, qui apparaissent principalement au début de la saison sèche, sont de couleur rouge vif. L’arbre produit des gousses incurvées faisant 7-18 cm de long, de couleur kaki à maturité. Ces gousses contiennent des graines au nombre de 5 à 9, de couleur rouge vif, d'aspect lisse et luisant, faisant 6-7 mm de long.</t>
         </is>
       </c>
     </row>
@@ -548,14 +562,16 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Usages avérés en pharmacopée
-Les écorces, les feuilles et les graines ont des propriétés relaxantes, anesthésiantes, et paralysantes[1].
+Les écorces, les feuilles et les graines ont des propriétés relaxantes, anesthésiantes, et paralysantes.
 Usages agricoles, pastoraux et vétérinaires
-Les arbres peuvent être plantés en haie vive, en palissade et pour l’ornementation. Les feuilles et les fruits peuvent être consommés par le bétail, et l’écorce utilisée comme diurétique pour les chevaux[1].
+Les arbres peuvent être plantés en haie vive, en palissade et pour l’ornementation. Les feuilles et les fruits peuvent être consommés par le bétail, et l’écorce utilisée comme diurétique pour les chevaux.
 Usages domestiques, artisanaux et industriels
-Le bois - peu durable - peut servir à la composition de planches et manches de couteaux, ou comme bûchettes pour le feu. Les graines peuvent être utilisées pour la création de colliers et colifichets[1].</t>
+Le bois - peu durable - peut servir à la composition de planches et manches de couteaux, ou comme bûchettes pour le feu. Les graines peuvent être utilisées pour la création de colliers et colifichets.</t>
         </is>
       </c>
     </row>
